--- a/documents/Published/DataInsights/DataInsightsByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/DataInsights/DataInsightsByMAQSoftwareChecklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cutom Visual\PowerBI\documents\Published\DataInsights\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab_PowerBIVisuals\documents\Published\DataInsights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D02AF8-FC70-4EF8-85D2-33DFFF0821AD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F8CD81-3773-4513-A9C7-647E72C347EF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{0A959DB4-3E27-42B6-BC52-6DE114CB58CF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="115">
   <si>
     <t>S no</t>
   </si>
@@ -422,6 +422,24 @@
 2. Value is present in the bottom right corner
 3. If Binning By is not none then brick for each bin value are present
 4. Multiple Bar Selection/Deselection Holding Ctrl button</t>
+  </si>
+  <si>
+    <t>Bookmarks</t>
+  </si>
+  <si>
+    <t>Check whether bookmarks feature works</t>
+  </si>
+  <si>
+    <t>1. Go to View and turn on Bookmarks Pane
+2. In the visual, perform selections
+3. In the boomarks pane, add a new bookmark such that selections are retained
+4. Now change selections &amp; click on the saved bookmark</t>
+  </si>
+  <si>
+    <t>1. Bookmarks Pane will be visible on the left
+2. Visual will update according to selections
+3. In the boomarks pane, a new entry of the bookmark will come
+4. The selection state saved in bookmark will be restored in the visual</t>
   </si>
 </sst>
 </file>
@@ -790,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD35E9AA-EC94-40B6-87B9-91903B6E03DF}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,6 +1295,35 @@
         <v>96</v>
       </c>
       <c r="I18" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>96</v>
       </c>
     </row>
